--- a/Endungen Altgriechisch.xlsx
+++ b/Endungen Altgriechisch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/509cc525de2b7cca/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/509cc525de2b7cca/Programmieren/stygo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{4EB1830A-0C56-4E02-890E-4EE6FC1E2E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53D0E76-5910-4875-8DAC-882348E272CD}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{4EB1830A-0C56-4E02-890E-4EE6FC1E2E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F1B7569-C577-4381-B7F7-38159E75089B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{378E0C6B-CB94-45FB-B90F-3C534194D922}"/>
   </bookViews>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>a-Deklination</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>o-Deklination M</t>
   </si>
@@ -38,9 +35,6 @@
     <t>o-Deklination N</t>
   </si>
   <si>
-    <t>a-Deklination EIR</t>
-  </si>
-  <si>
     <t>a-Deklination M EIR</t>
   </si>
   <si>
@@ -72,6 +66,72 @@
   </si>
   <si>
     <t>Stamm auf -ι-</t>
+  </si>
+  <si>
+    <t>ος</t>
+  </si>
+  <si>
+    <t>ου</t>
+  </si>
+  <si>
+    <t>ῳ</t>
+  </si>
+  <si>
+    <t>ον</t>
+  </si>
+  <si>
+    <t>οι</t>
+  </si>
+  <si>
+    <t>ων</t>
+  </si>
+  <si>
+    <t>οις</t>
+  </si>
+  <si>
+    <t>ους</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>ης</t>
+  </si>
+  <si>
+    <t>ῃ</t>
+  </si>
+  <si>
+    <t>ην</t>
+  </si>
+  <si>
+    <t>αι</t>
+  </si>
+  <si>
+    <t>ῶν</t>
+  </si>
+  <si>
+    <t>αις</t>
+  </si>
+  <si>
+    <t>ας</t>
+  </si>
+  <si>
+    <t>a-Deklination F EIR</t>
+  </si>
+  <si>
+    <t>a-Deklination η</t>
+  </si>
+  <si>
+    <t>η</t>
+  </si>
+  <si>
+    <t>a-Deklination α</t>
+  </si>
+  <si>
+    <t>ᾳ</t>
+  </si>
+  <si>
+    <t>αν</t>
   </si>
 </sst>
 </file>
@@ -424,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D830E020-86D8-4ECA-BCA5-DE406DF74F77}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,68 +495,199 @@
     <col min="1" max="1" width="17.1796875" customWidth="1"/>
     <col min="2" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="26.453125" customWidth="1"/>
-    <col min="9" max="9" width="52.90625" customWidth="1"/>
-    <col min="10" max="10" width="24.1796875" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" customWidth="1"/>
+    <col min="5" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="26.453125" customWidth="1"/>
+    <col min="10" max="10" width="52.90625" customWidth="1"/>
+    <col min="11" max="11" width="24.1796875" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I3" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I5" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="I9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
